--- a/tasks/task_table_great_stat.xlsx
+++ b/tasks/task_table_great_stat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NutCloudSync\code\pondo2\tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NutCloudSync\code\pondo2\tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="0" windowWidth="18210" windowHeight="7785"/>
+    <workbookView xWindow="16491" yWindow="0" windowWidth="18208" windowHeight="7782"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="37">
   <si>
     <t>SEGMENT</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,10 +625,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J3" s="6">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -913,33 +913,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -962,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
@@ -991,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
@@ -1017,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -1162,44 +1156,38 @@
         <v>0</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7">
-        <v>15</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="D21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1211,13 +1199,13 @@
         <v>13</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="8">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J22" s="8">
         <v>1</v>
@@ -1228,10 +1216,10 @@
     </row>
     <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>15</v>
@@ -1240,7 +1228,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J23" s="8">
         <v>1</v>
@@ -1251,7 +1239,7 @@
     </row>
     <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>17</v>
@@ -1263,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="E24" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
@@ -1274,7 +1262,7 @@
     </row>
     <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>17</v>
@@ -1286,7 +1274,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J25" s="8">
         <v>1</v>
@@ -1297,7 +1285,7 @@
     </row>
     <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>17</v>
@@ -1309,7 +1297,13 @@
         <v>35</v>
       </c>
       <c r="E26" s="8">
-        <v>2.4E-2</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.06</v>
       </c>
       <c r="J26" s="8">
         <v>1</v>
@@ -1318,87 +1312,81 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1</v>
-      </c>
-      <c r="K29" s="8" t="s">
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>11</v>
@@ -1407,7 +1395,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.06</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -1416,78 +1410,72 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="J31" s="9">
-        <v>1</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="J33" s="9">
-        <v>1</v>
-      </c>
-      <c r="K33" s="9" t="s">
+    <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>35</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>30</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>25</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1505,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="10">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J34" s="10">
         <v>0</v>
@@ -1528,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J35" s="10">
         <v>0</v>
@@ -1551,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J36" s="10">
         <v>0</v>
@@ -1562,7 +1550,7 @@
     </row>
     <row r="37" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>20</v>
@@ -1574,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -1585,10 +1573,10 @@
     </row>
     <row r="38" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>11</v>
@@ -1597,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -1620,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -1643,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J40" s="10">
         <v>0</v>
@@ -1666,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -1689,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -1700,7 +1688,7 @@
     </row>
     <row r="43" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -1712,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J43" s="10">
         <v>0</v>
@@ -1721,27 +1709,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="5">
-        <v>15</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>31</v>
+    <row r="44" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>5</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1749,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>11</v>
@@ -1758,7 +1746,7 @@
         <v>22</v>
       </c>
       <c r="E45" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J45" s="5">
         <v>0</v>
@@ -1781,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="E46" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J46" s="5">
         <v>0</v>
@@ -1795,16 +1783,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J47" s="5">
         <v>0</v>
@@ -1827,7 +1815,7 @@
         <v>23</v>
       </c>
       <c r="E48" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J48" s="5">
         <v>0</v>
@@ -1850,7 +1838,7 @@
         <v>23</v>
       </c>
       <c r="E49" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J49" s="5">
         <v>0</v>
@@ -1873,7 +1861,7 @@
         <v>23</v>
       </c>
       <c r="E50" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J50" s="5">
         <v>0</v>

--- a/tasks/task_table_great_stat.xlsx
+++ b/tasks/task_table_great_stat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16491" yWindow="0" windowWidth="18208" windowHeight="7782"/>
+    <workbookView xWindow="19560" yWindow="0" windowWidth="18210" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="39">
   <si>
     <t>SEGMENT</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,15 +162,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>crown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_FN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>LENGTH_MODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>crown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_FN</t>
+    <t>absmean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge40</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,14 +629,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
@@ -650,7 +658,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -674,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -881,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
@@ -904,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
@@ -915,7 +923,7 @@
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -927,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
@@ -936,62 +944,50 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>30</v>
+    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1014,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -1040,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
@@ -1057,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -1072,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -1086,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>11</v>
@@ -1098,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -1130,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -1156,79 +1152,91 @@
         <v>0</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
+        <v>16</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>12</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
         <v>15</v>
       </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1</v>
-      </c>
-      <c r="K22" s="8" t="s">
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="8">
-        <v>0.02</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J23" s="8">
         <v>1</v>
@@ -1239,19 +1247,19 @@
     </row>
     <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="8">
-        <v>2.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
@@ -1262,7 +1270,7 @@
     </row>
     <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>17</v>
@@ -1271,10 +1279,10 @@
         <v>15</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J25" s="8">
         <v>1</v>
@@ -1285,7 +1293,7 @@
     </row>
     <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>17</v>
@@ -1294,67 +1302,67 @@
         <v>15</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
         <v>0.4</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G28" s="8">
         <v>0.06</v>
       </c>
-      <c r="J26" s="8">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J27" s="9">
-        <v>1</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="J28" s="9">
-        <v>1</v>
-      </c>
-      <c r="K28" s="9" t="s">
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1363,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>11</v>
@@ -1372,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J29" s="9">
         <v>1</v>
@@ -1383,122 +1391,116 @@
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="C31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
         <v>0.6</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G33" s="9">
         <v>0.06</v>
       </c>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>35</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>30</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>25</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>20</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10" t="s">
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="9">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1510,13 +1512,13 @@
         <v>20</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D35" s="10">
         <v>0</v>
       </c>
       <c r="E35" s="10">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J35" s="10">
         <v>0</v>
@@ -1539,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="10">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J36" s="10">
         <v>0</v>
@@ -1550,7 +1552,7 @@
     </row>
     <row r="37" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>20</v>
@@ -1562,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="10">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>11</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -1599,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>11</v>
@@ -1608,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>11</v>
@@ -1631,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J40" s="10">
         <v>0</v>
@@ -1645,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>11</v>
@@ -1654,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -1665,10 +1667,10 @@
     </row>
     <row r="42" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>11</v>
@@ -1677,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -1700,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J43" s="10">
         <v>0</v>
@@ -1711,7 +1713,7 @@
     </row>
     <row r="44" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -1723,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="10">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
@@ -1732,141 +1734,279 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>30</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>25</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>20</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <v>15</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <v>10</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>5</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E51" s="5">
         <v>15</v>
       </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5" t="s">
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    <row r="52" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E52" s="5">
         <v>18</v>
       </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5" t="s">
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="5" t="s">
+    <row r="53" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E53" s="5">
         <v>20</v>
       </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5" t="s">
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E54" s="5">
         <v>15</v>
       </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5" t="s">
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="55" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E55" s="5">
         <v>18</v>
       </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5" t="s">
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    <row r="56" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E56" s="5">
         <v>20</v>
       </c>
-      <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="K50" s="5" t="s">
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>31</v>
       </c>
     </row>
